--- a/object_detection/results/output.xlsx
+++ b/object_detection/results/output.xlsx
@@ -28,25 +28,25 @@
     <t xml:space="preserve">Polygon 1 Area = </t>
   </si>
   <si>
-    <t>2.1180417569387107</t>
+    <t>2.1879441057472637</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 2 Area = </t>
   </si>
   <si>
-    <t>0.43713879638505476</t>
+    <t>0.5496026394271882</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 3 Area = </t>
   </si>
   <si>
-    <t>2.4836709646318287</t>
+    <t>2.4370349413531525</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 4 Area = </t>
   </si>
   <si>
-    <t>1.2611484820444054</t>
+    <t>1.1254183134723954</t>
   </si>
 </sst>
 </file>

--- a/object_detection/results/output.xlsx
+++ b/object_detection/results/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Polygon Areas in m2</t>
   </si>
@@ -22,31 +22,19 @@
     <t xml:space="preserve">Polygon Area = </t>
   </si>
   <si>
-    <t>6.3</t>
+    <t>5.0</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 1 Area = </t>
   </si>
   <si>
-    <t>2.1879441057472637</t>
+    <t>1.6666666666666667</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 2 Area = </t>
   </si>
   <si>
-    <t>0.5496026394271882</t>
-  </si>
-  <si>
     <t xml:space="preserve">Polygon 3 Area = </t>
-  </si>
-  <si>
-    <t>2.4370349413531525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polygon 4 Area = </t>
-  </si>
-  <si>
-    <t>1.1254183134723954</t>
   </si>
 </sst>
 </file>
@@ -103,10 +91,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -124,7 +112,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4095750" y="190500"/>
-          <a:ext cx="12192000" cy="6858000"/>
+          <a:ext cx="3352800" cy="2743200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -421,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -457,23 +445,15 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/object_detection/results/output.xlsx
+++ b/object_detection/results/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Polygon Areas in m2</t>
   </si>
@@ -22,19 +22,55 @@
     <t xml:space="preserve">Polygon Area = </t>
   </si>
   <si>
-    <t>5.0</t>
+    <t>4.15</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 1 Area = </t>
   </si>
   <si>
-    <t>1.6666666666666667</t>
+    <t>0.38969394202536184</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 2 Area = </t>
   </si>
   <si>
+    <t>0.060071564450241165</t>
+  </si>
+  <si>
     <t xml:space="preserve">Polygon 3 Area = </t>
+  </si>
+  <si>
+    <t>0.8344815294113672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polygon 4 Area = </t>
+  </si>
+  <si>
+    <t>0.45380393097645966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polygon 5 Area = </t>
+  </si>
+  <si>
+    <t>0.35253482769456385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polygon 6 Area = </t>
+  </si>
+  <si>
+    <t>1.162701676257024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polygon 7 Area = </t>
+  </si>
+  <si>
+    <t>0.5978130268924202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polygon 8 Area = </t>
+  </si>
+  <si>
+    <t>0.29889950229256296</t>
   </si>
 </sst>
 </file>
@@ -91,10 +127,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -112,7 +148,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4095750" y="190500"/>
-          <a:ext cx="3352800" cy="2743200"/>
+          <a:ext cx="12192000" cy="6858000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -409,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -445,15 +481,55 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/object_detection/results/output.xlsx
+++ b/object_detection/results/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Polygon Areas in m2</t>
   </si>
@@ -22,55 +22,19 @@
     <t xml:space="preserve">Polygon Area = </t>
   </si>
   <si>
-    <t>4.15</t>
+    <t>6.0</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 1 Area = </t>
   </si>
   <si>
-    <t>0.38969394202536184</t>
+    <t>3.210913258602858</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 2 Area = </t>
   </si>
   <si>
-    <t>0.060071564450241165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polygon 3 Area = </t>
-  </si>
-  <si>
-    <t>0.8344815294113672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polygon 4 Area = </t>
-  </si>
-  <si>
-    <t>0.45380393097645966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polygon 5 Area = </t>
-  </si>
-  <si>
-    <t>0.35253482769456385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polygon 6 Area = </t>
-  </si>
-  <si>
-    <t>1.162701676257024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polygon 7 Area = </t>
-  </si>
-  <si>
-    <t>0.5978130268924202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polygon 8 Area = </t>
-  </si>
-  <si>
-    <t>0.29889950229256296</t>
+    <t>2.789086741397143</t>
   </si>
 </sst>
 </file>
@@ -127,10 +91,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -148,7 +112,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4095750" y="190500"/>
-          <a:ext cx="12192000" cy="6858000"/>
+          <a:ext cx="3352800" cy="2743200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -445,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -484,54 +448,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/object_detection/results/output.xlsx
+++ b/object_detection/results/output.xlsx
@@ -22,19 +22,19 @@
     <t xml:space="preserve">Polygon Area = </t>
   </si>
   <si>
-    <t>6.0</t>
+    <t>5.0</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 1 Area = </t>
   </si>
   <si>
-    <t>3.210913258602858</t>
+    <t>2.7087679729348744</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 2 Area = </t>
   </si>
   <si>
-    <t>2.789086741397143</t>
+    <t>2.2912320270651256</t>
   </si>
 </sst>
 </file>

--- a/object_detection/results/output.xlsx
+++ b/object_detection/results/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Polygon Areas in m2</t>
   </si>
@@ -22,19 +22,49 @@
     <t xml:space="preserve">Polygon Area = </t>
   </si>
   <si>
-    <t>5.0</t>
+    <t xml:space="preserve">Average Density = </t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 1 Area = </t>
   </si>
   <si>
-    <t>2.7087679729348744</t>
+    <t>5.210035023610421</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 2 Area = </t>
   </si>
   <si>
-    <t>2.2912320270651256</t>
+    <t>7.800450435894758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polygon 3 Area = </t>
+  </si>
+  <si>
+    <t>5.335363598813423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polygon 4 Area = </t>
+  </si>
+  <si>
+    <t>6.09881583648115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polygon 5 Area = </t>
+  </si>
+  <si>
+    <t>18.15827269580471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polygon 6 Area = </t>
+  </si>
+  <si>
+    <t>11.397062409395536</t>
   </si>
 </sst>
 </file>
@@ -409,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,12 +459,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -446,6 +476,46 @@
       </c>
       <c r="B4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/object_detection/results/output.xlsx
+++ b/object_detection/results/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Polygon Areas in m2</t>
   </si>
@@ -25,46 +25,40 @@
     <t xml:space="preserve">Average Density = </t>
   </si>
   <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>9.0</t>
+    <t>351.0</t>
+  </si>
+  <si>
+    <t>70.2</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 1 Area = </t>
   </si>
   <si>
-    <t>5.210035023610421</t>
+    <t>76.0436453821305</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 2 Area = </t>
   </si>
   <si>
-    <t>7.800450435894758</t>
+    <t>45.12837407116182</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 3 Area = </t>
   </si>
   <si>
-    <t>5.335363598813423</t>
+    <t>33.927576394934526</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 4 Area = </t>
   </si>
   <si>
-    <t>6.09881583648115</t>
+    <t>57.73059520656641</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 5 Area = </t>
   </si>
   <si>
-    <t>18.15827269580471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polygon 6 Area = </t>
-  </si>
-  <si>
-    <t>11.397062409395536</t>
+    <t>138.16980894520674</t>
   </si>
 </sst>
 </file>
@@ -439,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,14 +504,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/object_detection/results/output.xlsx
+++ b/object_detection/results/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Polygon Areas in m2</t>
   </si>
@@ -25,40 +25,34 @@
     <t xml:space="preserve">Average Density = </t>
   </si>
   <si>
-    <t>351.0</t>
-  </si>
-  <si>
-    <t>70.2</t>
+    <t>321.0</t>
+  </si>
+  <si>
+    <t>80.25</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 1 Area = </t>
   </si>
   <si>
-    <t>76.0436453821305</t>
+    <t>108.06341340807079</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 2 Area = </t>
   </si>
   <si>
-    <t>45.12837407116182</t>
+    <t>20.68526856682917</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 3 Area = </t>
   </si>
   <si>
-    <t>33.927576394934526</t>
+    <t>126.60876511299692</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 4 Area = </t>
   </si>
   <si>
-    <t>57.73059520656641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polygon 5 Area = </t>
-  </si>
-  <si>
-    <t>138.16980894520674</t>
+    <t>65.64255291210311</t>
   </si>
 </sst>
 </file>
@@ -115,10 +109,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -136,7 +130,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4095750" y="190500"/>
-          <a:ext cx="3352800" cy="2743200"/>
+          <a:ext cx="12192000" cy="6858000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -433,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,14 +490,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/object_detection/results/output.xlsx
+++ b/object_detection/results/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Polygon Areas in m2</t>
   </si>
@@ -25,34 +25,46 @@
     <t xml:space="preserve">Average Density = </t>
   </si>
   <si>
-    <t>321.0</t>
-  </si>
-  <si>
-    <t>80.25</t>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 1 Area = </t>
   </si>
   <si>
-    <t>108.06341340807079</t>
+    <t>1.1814000144772876</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 2 Area = </t>
   </si>
   <si>
-    <t>20.68526856682917</t>
+    <t>0.6723563419925566</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 3 Area = </t>
   </si>
   <si>
-    <t>126.60876511299692</t>
+    <t>0.42477136329701987</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 4 Area = </t>
   </si>
   <si>
-    <t>65.64255291210311</t>
+    <t>0.8315489708322916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polygon 5 Area = </t>
+  </si>
+  <si>
+    <t>1.5067152545973403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polygon 6 Area = </t>
+  </si>
+  <si>
+    <t>1.383208054803503</t>
   </si>
 </sst>
 </file>
@@ -427,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,6 +502,22 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/object_detection/results/output.xlsx
+++ b/object_detection/results/output.xlsx
@@ -25,46 +25,46 @@
     <t xml:space="preserve">Average Density = </t>
   </si>
   <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>1.0</t>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>1.1666666666666667</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 1 Area = </t>
   </si>
   <si>
-    <t>1.1814000144772876</t>
+    <t>0.7049227768860873</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 2 Area = </t>
   </si>
   <si>
-    <t>0.6723563419925566</t>
+    <t>0.9848280007045476</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 3 Area = </t>
   </si>
   <si>
-    <t>0.42477136329701987</t>
+    <t>2.131901514888578</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 4 Area = </t>
   </si>
   <si>
-    <t>0.8315489708322916</t>
+    <t>0.33651772285412823</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 5 Area = </t>
   </si>
   <si>
-    <t>1.5067152545973403</t>
+    <t>1.7672147886470448</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 6 Area = </t>
   </si>
   <si>
-    <t>1.383208054803503</t>
+    <t>1.0746151960196149</t>
   </si>
 </sst>
 </file>

--- a/object_detection/results/output.xlsx
+++ b/object_detection/results/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Polygon Areas in m2</t>
   </si>
@@ -25,46 +25,28 @@
     <t xml:space="preserve">Average Density = </t>
   </si>
   <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>1.1666666666666667</t>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>18.0</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 1 Area = </t>
   </si>
   <si>
-    <t>0.7049227768860873</t>
+    <t>8.244041544551067</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 2 Area = </t>
   </si>
   <si>
-    <t>0.9848280007045476</t>
+    <t>26.8582486424104</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 3 Area = </t>
   </si>
   <si>
-    <t>2.131901514888578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polygon 4 Area = </t>
-  </si>
-  <si>
-    <t>0.33651772285412823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polygon 5 Area = </t>
-  </si>
-  <si>
-    <t>1.7672147886470448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polygon 6 Area = </t>
-  </si>
-  <si>
-    <t>1.0746151960196149</t>
+    <t>18.897709813038528</t>
   </si>
 </sst>
 </file>
@@ -439,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,30 +476,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/object_detection/results/output.xlsx
+++ b/object_detection/results/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Polygon Areas in m2</t>
   </si>
@@ -25,28 +25,46 @@
     <t xml:space="preserve">Average Density = </t>
   </si>
   <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>18.0</t>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>10.833333333333334</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 1 Area = </t>
   </si>
   <si>
-    <t>8.244041544551067</t>
+    <t>6.9417870108637265</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 2 Area = </t>
   </si>
   <si>
-    <t>26.8582486424104</t>
+    <t>13.720120752409844</t>
   </si>
   <si>
     <t xml:space="preserve">Polygon 3 Area = </t>
   </si>
   <si>
-    <t>18.897709813038528</t>
+    <t>4.08522447736458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polygon 4 Area = </t>
+  </si>
+  <si>
+    <t>9.111103034878461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polygon 5 Area = </t>
+  </si>
+  <si>
+    <t>13.643266728456988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polygon 6 Area = </t>
+  </si>
+  <si>
+    <t>17.498497996026405</t>
   </si>
 </sst>
 </file>
@@ -421,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -476,6 +494,30 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
